--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingemras\AppData\Roaming\Factorio\mods\TheEmpiredev_0.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B9E69D-357D-4327-BD42-6C76BBC653F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C524DD5-2C46-4B73-A05F-DFAE3584F381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{8C2B6033-0141-4B28-8554-31B7B3325C7E}"/>
+    <workbookView xWindow="2970" yWindow="3300" windowWidth="21600" windowHeight="11205" xr2:uid="{8C2B6033-0141-4B28-8554-31B7B3325C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
     <sheet name="Generated chunks" sheetId="2" r:id="rId2"/>
     <sheet name="Thoughts" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Tech tree" sheetId="5" r:id="rId4"/>
+    <sheet name="Graph" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
   <si>
     <t>Function</t>
   </si>
@@ -112,9 +113,6 @@
     <t>Biter nest and groth</t>
   </si>
   <si>
-    <t>Pollution</t>
-  </si>
-  <si>
     <t>Biter attacks</t>
   </si>
   <si>
@@ -184,12 +182,6 @@
     <t>Railroad on worldmap</t>
   </si>
   <si>
-    <t>Worldmap forest, desert and settelment tiles</t>
-  </si>
-  <si>
-    <t>Animal density and groth world map</t>
-  </si>
-  <si>
     <t>Make centerGui your main gui</t>
   </si>
   <si>
@@ -226,9 +218,6 @@
     <t>The bigger the settlement the higher tech stuff they can build, different settlement can specialize on different tech routes</t>
   </si>
   <si>
-    <t>Settlements cant be to close maybe? (maybe only on designated tiles?)</t>
-  </si>
-  <si>
     <t>Biters</t>
   </si>
   <si>
@@ -304,29 +293,158 @@
     <t>ln(p)*0.1</t>
   </si>
   <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Storages can be chests with an extra ui where you can chose max amounts for different goods (and a global max)</t>
+  </si>
+  <si>
+    <t>Warehouses can be chest with the same ui as storages, and en extra one where you choose recepies and see progress.</t>
+  </si>
+  <si>
+    <t>Settlements cant be to close maybe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     (maybe only on designated tiles?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     (Need for different resources could motivate spreading settlements out?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (maybe some kind of penalty if settlements are to close? More biter attacks for sure, maybe also slower populationgroth? Or maybe slower resource collection? Maybe some bonus for emty tiles around the settlement, like better hunting?)</t>
+  </si>
+  <si>
+    <t>Item limit ui for storages and workshops</t>
+  </si>
+  <si>
+    <t>Production and progress ui for workshops</t>
+  </si>
+  <si>
+    <t>Make workshops actually produce stuff</t>
+  </si>
+  <si>
+    <t>Make global task queue (sorted by tick id)</t>
+  </si>
+  <si>
+    <t>Solve how to get output from workshops</t>
+  </si>
+  <si>
+    <t>Storages can be traincarts so you can reserve slots for one item, and a ui for easier setting of many reserves at once.</t>
+  </si>
+  <si>
+    <t>Inserters should take items from both side of the belt to make sure your input is not to inbalanced if you have two items on one belt.</t>
+  </si>
+  <si>
+    <t>Since inserters cannot grab from far side I will just have to use filter item slots, and option to block all slots not specified</t>
+  </si>
+  <si>
+    <t>Make storage and workshop filterable</t>
+  </si>
+  <si>
+    <t>Form gathering teams in gathering structure in settlement.</t>
+  </si>
+  <si>
+    <t>Select hexes on worldmap for team to visit.</t>
+  </si>
+  <si>
+    <t>Speed of team gives traveling time. Gatheringspeed of team gives gathering time. Together you get total time.</t>
+  </si>
+  <si>
+    <t>Hex has max food of 100 and regen 1/sec, so you need you whole gathering round to be top 100 s</t>
+  </si>
+  <si>
+    <t>Storage of teams gives when they have to go home.</t>
+  </si>
+  <si>
+    <t>Preferable you make your trip exactly 100s, since shorter means not all food have regend when you visit again, so less food per trip, or to put it in another way, more traveling per food.</t>
+  </si>
+  <si>
+    <t>Bigger teams lets you gather more before returning to base, and more efficient to escort.</t>
+  </si>
+  <si>
+    <t>Maybe put diminishing returns on number of simultanious gatherers, or a setup time for each hex, that favor smaller temas. Just to make small and big teams both have advantages?</t>
+  </si>
+  <si>
+    <t>Berry, hunt, wood gathering</t>
+  </si>
+  <si>
+    <t>One patch per base. Fix gathering speed.</t>
+  </si>
+  <si>
+    <t>Stone, Iron, Coal, Copper and oil gathering</t>
+  </si>
+  <si>
+    <t>Wood/stone age</t>
+  </si>
+  <si>
+    <t>Iron age (copper comes here or before)</t>
+  </si>
+  <si>
+    <t>Copper age</t>
+  </si>
+  <si>
+    <t>Oil age</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Settlements can specialiaze in a field, and generate one permanent and one consumable type of item</t>
+  </si>
+  <si>
+    <t>Permanent groups</t>
+  </si>
+  <si>
+    <t>Consumable groups</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Ammo</t>
+  </si>
+  <si>
+    <t>Settlement consumables</t>
+  </si>
+  <si>
+    <t>railway, vehicles, trains</t>
+  </si>
+  <si>
+    <t>belt, pipe, inserter, plants</t>
+  </si>
+  <si>
+    <t>Production research</t>
+  </si>
+  <si>
+    <t>Logistics research</t>
+  </si>
+  <si>
+    <t>Weaponds</t>
+  </si>
+  <si>
+    <t>Worldmap forest, grassland and montain tiles</t>
+  </si>
+  <si>
+    <t>Animal density world map</t>
+  </si>
+  <si>
     <t>in progress</t>
   </si>
   <si>
-    <t>Various</t>
-  </si>
-  <si>
-    <t>Storages can be chests with an extra ui where you can chose max amounts for different goods (and a global max)</t>
-  </si>
-  <si>
-    <t>Warehouses can be chest with the same ui as storages, and en extra one where you choose recepies and see progress.</t>
-  </si>
-  <si>
-    <t>Item limit ui for storages and warehouses</t>
-  </si>
-  <si>
-    <t>Production and progress ui for warehouses</t>
+    <t>Build squad window</t>
+  </si>
+  <si>
+    <t>Sqad templates</t>
+  </si>
+  <si>
+    <t>Split select unit window from workshop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +462,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -378,6 +504,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +645,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$35</c:f>
+              <c:f>Graph!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -629,7 +756,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$35</c:f>
+              <c:f>Graph!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1826,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B25D95-7349-4075-99CF-A76FE5E9CDFC}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1855,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1863,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1871,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,7 +2014,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1895,7 +2022,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,23 +2030,23 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1927,15 +2054,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1943,31 +2070,31 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1975,7 +2102,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1983,7 +2110,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1991,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,15 +2126,15 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2015,7 +2142,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2023,7 +2150,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2031,28 +2158,28 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
@@ -2060,7 +2187,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -2068,7 +2195,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
@@ -2076,7 +2203,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -2084,7 +2211,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -2092,7 +2219,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -2100,102 +2227,150 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>29</v>
       </c>
-      <c r="B44" t="s">
-        <v>33</v>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B32:B1048576 B1:B30">
+  <conditionalFormatting sqref="B1:B37 B39:B1048576">
     <cfRule type="beginsWith" dxfId="5" priority="4" operator="beginsWith" text="done">
       <formula>LEFT(B1,LEN("done"))="done"</formula>
     </cfRule>
@@ -2206,15 +2381,15 @@
       <formula>LEFT(B1,LEN("to do"))="to do"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
+  <conditionalFormatting sqref="B38">
     <cfRule type="beginsWith" dxfId="2" priority="1" operator="beginsWith" text="done">
-      <formula>LEFT(B31,LEN("done"))="done"</formula>
+      <formula>LEFT(B38,LEN("done"))="done"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="in progress">
-      <formula>LEFT(B31,LEN("in progress"))="in progress"</formula>
+      <formula>LEFT(B38,LEN("in progress"))="in progress"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="3" operator="beginsWith" text="to do">
-      <formula>LEFT(B31,LEN("to do"))="to do"</formula>
+      <formula>LEFT(B38,LEN("to do"))="to do"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2240,16 +2415,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2263,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2277,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2319,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2333,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2343,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269C345E-C19B-4DCD-837F-0BF6CE8401CA}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2532,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -2365,7 +2540,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>0.01</v>
@@ -2373,7 +2548,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2">
         <f>B1*B2</f>
@@ -2382,7 +2557,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>1.2</v>
@@ -2390,7 +2565,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2">
         <f>B1*B5</f>
@@ -2399,7 +2574,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2">
         <f>B5/B2</f>
@@ -2408,7 +2583,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2416,7 +2591,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3">
         <f>B2/B9</f>
@@ -2425,7 +2600,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B11" s="5">
         <f>B1*B10</f>
@@ -2434,15 +2609,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B14" s="6">
         <v>2</v>
@@ -2450,7 +2625,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2">
         <f>LOG(B1,2.71828182846)*0.1</f>
@@ -2459,7 +2634,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2">
         <f>B14*B15</f>
@@ -2468,7 +2643,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4">
         <f>B16/B3</f>
@@ -2477,112 +2652,294 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F1B5E4-AE1E-432F-AE4E-27B9AC0207D5}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2590,22 +2947,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C22C299-DD86-4CD5-B3A9-315AFCB3E908}">
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1">
         <v>3</v>

--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingemras\AppData\Roaming\Factorio\mods\TheEmpiredev_0.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C524DD5-2C46-4B73-A05F-DFAE3584F381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDEF1B7-83B0-4D60-9479-295B0BE6C8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="3300" windowWidth="21600" windowHeight="11205" xr2:uid="{8C2B6033-0141-4B28-8554-31B7B3325C7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C2B6033-0141-4B28-8554-31B7B3325C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="139">
   <si>
     <t>Function</t>
   </si>
@@ -428,16 +428,34 @@
     <t>Animal density world map</t>
   </si>
   <si>
+    <t>Build squad window</t>
+  </si>
+  <si>
+    <t>Sqad templates</t>
+  </si>
+  <si>
+    <t>Split select unit window from workshop</t>
+  </si>
+  <si>
+    <t>Split itemlistbuilder from storage ui</t>
+  </si>
+  <si>
+    <t>Squad queue window</t>
+  </si>
+  <si>
+    <t>Squad templates window</t>
+  </si>
+  <si>
+    <t>Squad list window</t>
+  </si>
+  <si>
+    <t>Squad window</t>
+  </si>
+  <si>
+    <t>Try to build squads every x seconds</t>
+  </si>
+  <si>
     <t>in progress</t>
-  </si>
-  <si>
-    <t>Build squad window</t>
-  </si>
-  <si>
-    <t>Sqad templates</t>
-  </si>
-  <si>
-    <t>Split select unit window from workshop</t>
   </si>
 </sst>
 </file>
@@ -1953,20 +1971,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B25D95-7349-4075-99CF-A76FE5E9CDFC}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +1995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1985,7 +2003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1993,7 +2011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2001,7 +2019,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +2027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2017,7 +2035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2025,7 +2043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2033,7 +2051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2041,7 +2059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2049,7 +2067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2057,7 +2075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2065,7 +2083,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2073,7 +2091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2081,7 +2099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2089,7 +2107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2097,7 +2115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2105,7 +2123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2113,7 +2131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2121,7 +2139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2129,7 +2147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2137,7 +2155,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2145,7 +2163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2153,7 +2171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2161,7 +2179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -2169,7 +2187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -2177,7 +2195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -2185,7 +2203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -2193,7 +2211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -2201,7 +2219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -2209,7 +2227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -2217,7 +2235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -2225,152 +2243,200 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>132</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>16</v>
       </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B37 B39:B1048576">
+  <conditionalFormatting sqref="B45:B1048576 B1:B43">
     <cfRule type="beginsWith" dxfId="5" priority="4" operator="beginsWith" text="done">
       <formula>LEFT(B1,LEN("done"))="done"</formula>
     </cfRule>
@@ -2381,15 +2447,15 @@
       <formula>LEFT(B1,LEN("to do"))="to do"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+  <conditionalFormatting sqref="B44">
     <cfRule type="beginsWith" dxfId="2" priority="1" operator="beginsWith" text="done">
-      <formula>LEFT(B38,LEN("done"))="done"</formula>
+      <formula>LEFT(B44,LEN("done"))="done"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="in progress">
-      <formula>LEFT(B38,LEN("in progress"))="in progress"</formula>
+      <formula>LEFT(B44,LEN("in progress"))="in progress"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="3" operator="beginsWith" text="to do">
-      <formula>LEFT(B38,LEN("to do"))="to do"</formula>
+      <formula>LEFT(B44,LEN("to do"))="to do"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2405,15 +2471,15 @@
       <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2427,7 +2493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>63</v>
       </c>
@@ -2441,7 +2507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>32</v>
       </c>
@@ -2455,7 +2521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2469,7 +2535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>64</v>
       </c>
@@ -2483,7 +2549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>127</v>
       </c>
@@ -2497,7 +2563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>128</v>
       </c>
@@ -2524,13 +2590,13 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2538,7 +2604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2546,7 +2612,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2555,7 +2621,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2563,7 +2629,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -2572,7 +2638,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2581,7 +2647,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2589,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2598,7 +2664,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -2607,7 +2673,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -2615,7 +2681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -2623,7 +2689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -2632,7 +2698,7 @@
         <v>6.9314718055970184E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2641,7 +2707,7 @@
         <v>0.13862943611194037</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -2650,227 +2716,227 @@
         <v>6.9314718055970186</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -2889,13 +2955,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -2903,7 +2969,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2911,7 +2977,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -2919,7 +2985,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -2927,17 +2993,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>121</v>
       </c>
@@ -2955,9 +3021,9 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2968,7 +3034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2977,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2986,7 +3052,7 @@
         <v>0.63092975357145742</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2995,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3004,7 +3070,7 @@
         <v>1.2618595071429148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3013,7 +3079,7 @@
         <v>1.4649735207179269</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3022,7 +3088,7 @@
         <v>1.6309297535714573</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3031,7 +3097,7 @@
         <v>1.7712437491614221</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3040,7 +3106,7 @@
         <v>1.8927892607143719</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3049,7 +3115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3058,7 +3124,7 @@
         <v>2.0959032742893848</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3067,7 +3133,7 @@
         <v>2.1826583386441381</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3076,7 +3142,7 @@
         <v>2.2618595071429146</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3085,7 +3151,7 @@
         <v>2.3347175194727927</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3094,7 +3160,7 @@
         <v>2.4021735027328792</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3103,7 +3169,7 @@
         <v>2.4649735207179271</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3112,7 +3178,7 @@
         <v>2.5237190142858297</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3121,7 +3187,7 @@
         <v>2.5789019231625656</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3130,7 +3196,7 @@
         <v>2.6309297535714569</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3139,7 +3205,7 @@
         <v>2.6801438592463751</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3148,7 +3214,7 @@
         <v>2.7268330278608417</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>100</v>
       </c>
@@ -3157,7 +3223,7 @@
         <v>4.1918065485787697</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>200</v>
       </c>
@@ -3166,7 +3232,7 @@
         <v>4.8227363021502256</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>300</v>
       </c>
@@ -3175,7 +3241,7 @@
         <v>5.1918065485787688</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>400</v>
       </c>
@@ -3184,7 +3250,7 @@
         <v>5.4536660557216834</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>500</v>
       </c>
@@ -3193,7 +3259,7 @@
         <v>5.6567800692966959</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>600</v>
       </c>
@@ -3202,7 +3268,7 @@
         <v>5.8227363021502265</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>700</v>
       </c>
@@ -3211,7 +3277,7 @@
         <v>5.9630502977401907</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>800</v>
       </c>
@@ -3220,7 +3286,7 @@
         <v>6.0845958092931411</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>900</v>
       </c>
@@ -3229,7 +3295,7 @@
         <v>6.1918065485787688</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1000</v>
       </c>
@@ -3238,7 +3304,7 @@
         <v>6.2877098228681527</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1100</v>
       </c>
@@ -3247,7 +3313,7 @@
         <v>6.3744648872229064</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1200</v>
       </c>
@@ -3256,7 +3322,7 @@
         <v>6.4536660557216834</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1300</v>
       </c>
@@ -3265,7 +3331,7 @@
         <v>6.526524068051561</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1400</v>
       </c>
@@ -3274,7 +3340,7 @@
         <v>6.5939800513116484</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1500</v>
       </c>
@@ -3283,7 +3349,7 @@
         <v>6.6567800692966959</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1600</v>
       </c>
@@ -3292,7 +3358,7 @@
         <v>6.715525562864598</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1700</v>
       </c>
@@ -3301,7 +3367,7 @@
         <v>6.7707084717413339</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1800</v>
       </c>
@@ -3310,7 +3376,7 @@
         <v>6.8227363021502265</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1900</v>
       </c>
@@ -3319,7 +3385,7 @@
         <v>6.8719504078251443</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2000</v>
       </c>
@@ -3328,7 +3394,7 @@
         <v>6.9186395764396105</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3000</v>
       </c>
@@ -3337,7 +3403,7 @@
         <v>7.2877098228681527</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4000</v>
       </c>
@@ -3346,7 +3412,7 @@
         <v>7.5495693300110682</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5000</v>
       </c>
